--- a/The Architecture of Grasshopper Pueblo Data - Riggs 2001.xlsx
+++ b/The Architecture of Grasshopper Pueblo Data - Riggs 2001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dell-xps-2018\W-Dell-XPS-2018-Data\2023-09-09 The Architecture of Grasshopper Pueblo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E68F42-5BB8-46A9-AE8E-8443FDA3147E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9408AAA6-EF43-486A-B828-F5CC9FF73ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="255" windowWidth="25170" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="25" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4579" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4488" uniqueCount="768">
   <si>
     <t>Room Block</t>
   </si>
@@ -1525,45 +1525,9 @@
     <t>Table 3.19 Definite and Possible Beam Sockets or Second-Story Vents (n=12)</t>
   </si>
   <si>
-    <t>'21</t>
-  </si>
-  <si>
-    <t>'8</t>
-  </si>
-  <si>
-    <t>'2.6</t>
-  </si>
-  <si>
-    <t>'17</t>
-  </si>
-  <si>
-    <t>'26</t>
-  </si>
-  <si>
-    <t>'9</t>
-  </si>
-  <si>
-    <t>'7</t>
-  </si>
-  <si>
-    <t>'2.3</t>
-  </si>
-  <si>
-    <t>'5</t>
-  </si>
-  <si>
-    <t>'1.6</t>
-  </si>
-  <si>
-    <t>'3</t>
-  </si>
-  <si>
     <t>Table 3.23 Number and Percentage of Floor Features by Type</t>
   </si>
   <si>
-    <t>'</t>
-  </si>
-  <si>
     <t>Table 3.24 Metric Characteristics of Formal Communal Spaces</t>
   </si>
   <si>
@@ -1672,154 +1636,7 @@
     <t>Chatper 5 Tables</t>
   </si>
   <si>
-    <t>'Room Block</t>
-  </si>
-  <si>
-    <t>'Rooms</t>
-  </si>
-  <si>
-    <t>'Construction Units (CU)</t>
-  </si>
-  <si>
-    <t>'Construction Phases (CP)</t>
-  </si>
-  <si>
-    <t>'Rooms/CP</t>
-  </si>
-  <si>
-    <t>'CU/CP</t>
-  </si>
-  <si>
-    <t>'Rooms/CU</t>
-  </si>
-  <si>
-    <t>'4</t>
-  </si>
-  <si>
-    <t>'6</t>
-  </si>
-  <si>
-    <t>'2</t>
-  </si>
-  <si>
-    <t>'1.7</t>
-  </si>
-  <si>
-    <t>'1.2</t>
-  </si>
-  <si>
-    <t>'1</t>
-  </si>
-  <si>
-    <t>'13</t>
-  </si>
-  <si>
-    <t>'1.8</t>
-  </si>
-  <si>
-    <t>'14</t>
-  </si>
-  <si>
-    <t>'1.5</t>
-  </si>
-  <si>
-    <t>'10</t>
-  </si>
-  <si>
-    <t>'2.5</t>
-  </si>
-  <si>
-    <t>'1.3</t>
-  </si>
-  <si>
-    <t>'3.7</t>
-  </si>
-  <si>
-    <t>'2.4</t>
-  </si>
-  <si>
-    <t>'1.54</t>
-  </si>
-  <si>
-    <t>'11</t>
-  </si>
-  <si>
-    <t>'2.2</t>
-  </si>
-  <si>
-    <t>'12</t>
-  </si>
-  <si>
-    <t>'5.7</t>
-  </si>
-  <si>
-    <t>'1.9</t>
-  </si>
-  <si>
     <t>Table 4.1 Summary of Growth for the Outliers</t>
-  </si>
-  <si>
-    <t>'Room</t>
-  </si>
-  <si>
-    <t>'Feature</t>
-  </si>
-  <si>
-    <t>'Context</t>
-  </si>
-  <si>
-    <t>'Date Range (Years A.D.)</t>
-  </si>
-  <si>
-    <t>'113</t>
-  </si>
-  <si>
-    <t>'Preroom fire pit</t>
-  </si>
-  <si>
-    <t>'1300-1325</t>
-  </si>
-  <si>
-    <t>'?</t>
-  </si>
-  <si>
-    <t>'115</t>
-  </si>
-  <si>
-    <t>'1300-1350</t>
-  </si>
-  <si>
-    <t>'68</t>
-  </si>
-  <si>
-    <t>'Hearth on room floor</t>
-  </si>
-  <si>
-    <t>'1300-1375</t>
-  </si>
-  <si>
-    <t>'Oven 2</t>
-  </si>
-  <si>
-    <t>'Nonroom</t>
-  </si>
-  <si>
-    <t>'1350-1375</t>
-  </si>
-  <si>
-    <t>'0</t>
-  </si>
-  <si>
-    <t>'25</t>
-  </si>
-  <si>
-    <t>'1350-1400</t>
-  </si>
-  <si>
-    <t>'309</t>
-  </si>
-  <si>
-    <t>'312</t>
   </si>
   <si>
     <t>Table 4.2 Archaeomagnetic Dates from Grasshopper Pueblo, after Eighmy and Sternberg 1990:Table A-1</t>
@@ -2455,9 +2272,6 @@
     <t>Table 5.11 Room Functions for All Late-Abandoned Excavated Rooms</t>
   </si>
   <si>
-    <t>Table 5.12 Reid and Whittlesey's Room Function and the Reduced Typology</t>
-  </si>
-  <si>
     <t>Table 5.13 Kruskal-Wallis Tests on Room Area Grouped by Room Function</t>
   </si>
   <si>
@@ -2495,9 +2309,6 @@
   </si>
   <si>
     <t>Table 5.23 Mann-Whitney Test Comparing Standing Wall Height in the Aggregation and Dispersion Periods</t>
-  </si>
-  <si>
-    <t>Moran's I</t>
   </si>
   <si>
     <t>Excav Rooms</t>
@@ -2554,186 +2365,79 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 14.372; df = 6; p = 0.026; ϕ = 0.24; Cramer's V = 0.17</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 11.834; df = 6; p = 0.066; ϕ = 0.22; Cramer's V = 0.16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 8.735; df = 6; p = 0.189; ϕ = 0.20; Cramer's V = 0.15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 2.329; df = 3; p = 0.507; ϕ = 0.20; Cramer's V = 0.20</t>
-    </r>
-  </si>
-  <si>
     <t>Great Kiva Rooms (n=14)</t>
   </si>
   <si>
     <t>Main Pueblo (n=67)_</t>
+  </si>
+  <si>
+    <t>Construction Units (CU)</t>
+  </si>
+  <si>
+    <t>Construction Phases (CP)</t>
+  </si>
+  <si>
+    <t>Rooms/CP</t>
+  </si>
+  <si>
+    <t>CU/CP</t>
+  </si>
+  <si>
+    <t>Rooms/CU</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Date Range (Years A.D.)</t>
+  </si>
+  <si>
+    <t>Preroom fire pit</t>
+  </si>
+  <si>
+    <t>1300-1325</t>
+  </si>
+  <si>
+    <t>1300-1350</t>
+  </si>
+  <si>
+    <t>Hearth on room floor</t>
+  </si>
+  <si>
+    <t>1300-1375</t>
+  </si>
+  <si>
+    <t>Oven 2</t>
+  </si>
+  <si>
+    <t>Nonroom</t>
+  </si>
+  <si>
+    <t>1350-1375</t>
+  </si>
+  <si>
+    <t>1350-1400</t>
+  </si>
+  <si>
+    <t>Table 5.12 Reid and Whittleseys Room Function and the Reduced Typology</t>
+  </si>
+  <si>
+    <t>Morans I</t>
+  </si>
+  <si>
+    <t>aX2 = 2.329; df = 3; p = 0.507; ϕ = 0.20; Cramers V = 0.20</t>
+  </si>
+  <si>
+    <t>aX2 = 14.372; df = 6; p = 0.026; ϕ = 0.24; Cramers V = 0.17</t>
+  </si>
+  <si>
+    <t>bX2 = 11.834; df = 6; p = 0.066; ϕ = 0.22; Cramers V = 0.16</t>
+  </si>
+  <si>
+    <t>bX2 = 8.735; df = 6; p = 0.189; ϕ = 0.20; Cramers V = 0.15</t>
   </si>
 </sst>
 </file>
@@ -3852,22 +3556,22 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -15366,19 +15070,19 @@
       <c r="FD1" s="7"/>
       <c r="FE1" s="7"/>
       <c r="FG1" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="FH1" s="7"/>
       <c r="FI1" s="7"/>
       <c r="FK1" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="FL1" s="7"/>
       <c r="FM1" s="7"/>
       <c r="FN1" s="7"/>
       <c r="FO1" s="7"/>
       <c r="FQ1" s="7" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="FR1" s="7"/>
       <c r="FS1" s="7"/>
@@ -15750,13 +15454,13 @@
         <v>47</v>
       </c>
       <c r="FO2" s="1" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="FQ2" s="1" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="FR2" s="1" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="FS2" s="1" t="s">
         <v>21</v>
@@ -15771,7 +15475,7 @@
         <v>47</v>
       </c>
       <c r="FW2" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:179" ht="17.25" x14ac:dyDescent="0.25">
@@ -16127,7 +15831,7 @@
         <v>38.700000000000003</v>
       </c>
       <c r="FK3" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="FL3">
         <v>27.13</v>
@@ -16145,10 +15849,10 @@
         <v>397</v>
       </c>
       <c r="FR3" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="FS3" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="FT3">
         <v>14.88</v>
@@ -16576,7 +16280,7 @@
         <v>409</v>
       </c>
       <c r="FG4" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="FH4">
         <v>19</v>
@@ -16585,25 +16289,25 @@
         <v>6.2</v>
       </c>
       <c r="FK4" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="FL4" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="FM4" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="FN4" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="FO4">
         <v>152.25</v>
       </c>
       <c r="FQ4" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="FR4" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="FS4">
         <v>800</v>
@@ -17016,7 +16720,7 @@
         <v>0.43</v>
       </c>
       <c r="FG5" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="FH5">
         <v>21</v>
@@ -17025,7 +16729,7 @@
         <v>6.9</v>
       </c>
       <c r="FK5" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="FL5">
         <v>14.88</v>
@@ -17040,13 +16744,13 @@
         <v>185.16</v>
       </c>
       <c r="FQ5" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="FR5" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="FS5" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="FT5">
         <v>15.5</v>
@@ -17414,7 +17118,7 @@
         <v>0.54</v>
       </c>
       <c r="FG6" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="FH6">
         <v>15</v>
@@ -17423,10 +17127,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="FQ6" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="FR6" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="FS6">
         <v>335</v>
@@ -18066,7 +17770,7 @@
         <v>0.13</v>
       </c>
       <c r="FG8" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="FH8">
         <v>8</v>
@@ -18353,7 +18057,7 @@
         <v>3</v>
       </c>
       <c r="FG9" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="FH9">
         <v>17</v>
@@ -18625,7 +18329,7 @@
         <v>2</v>
       </c>
       <c r="FG10" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="FH10">
         <v>26</v>
@@ -18873,7 +18577,7 @@
         <v>5</v>
       </c>
       <c r="FG11" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="FH11">
         <v>9</v>
@@ -19076,7 +18780,7 @@
         <v>5</v>
       </c>
       <c r="FG12" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="FH12">
         <v>7</v>
@@ -19225,7 +18929,7 @@
         <v>4</v>
       </c>
       <c r="FG13" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="FH13">
         <v>5</v>
@@ -19380,7 +19084,7 @@
         <v>6</v>
       </c>
       <c r="FG14" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="FH14">
         <v>3</v>
@@ -19484,7 +19188,7 @@
         <v>10</v>
       </c>
       <c r="FG15" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="FH15">
         <v>20</v>
@@ -20056,6 +19760,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="CU1:CX1"/>
+    <mergeCell ref="CZ1:DE1"/>
+    <mergeCell ref="EP1:EX1"/>
+    <mergeCell ref="EZ1:FE1"/>
+    <mergeCell ref="ER2:EU2"/>
+    <mergeCell ref="DG1:DL1"/>
+    <mergeCell ref="DN1:DS1"/>
+    <mergeCell ref="DU1:DW1"/>
+    <mergeCell ref="DY1:EH1"/>
+    <mergeCell ref="EJ1:EN1"/>
     <mergeCell ref="FG1:FI1"/>
     <mergeCell ref="FK1:FO1"/>
     <mergeCell ref="FQ1:FW1"/>
@@ -20072,16 +19786,6 @@
     <mergeCell ref="BY1:CD1"/>
     <mergeCell ref="CF1:CN1"/>
     <mergeCell ref="CP1:CS1"/>
-    <mergeCell ref="CU1:CX1"/>
-    <mergeCell ref="CZ1:DE1"/>
-    <mergeCell ref="EP1:EX1"/>
-    <mergeCell ref="EZ1:FE1"/>
-    <mergeCell ref="ER2:EU2"/>
-    <mergeCell ref="DG1:DL1"/>
-    <mergeCell ref="DN1:DS1"/>
-    <mergeCell ref="DU1:DW1"/>
-    <mergeCell ref="DY1:EH1"/>
-    <mergeCell ref="EJ1:EN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20093,7 +19797,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20114,7 +19818,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -20123,7 +19827,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="I1" s="7" t="s">
-        <v>582</v>
+        <v>521</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
@@ -20132,399 +19836,396 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>533</v>
+        <v>335</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>534</v>
+        <v>745</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>535</v>
+        <v>746</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>536</v>
+        <v>747</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>537</v>
+        <v>748</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>538</v>
+        <v>749</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>563</v>
+        <v>751</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>564</v>
+        <v>752</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>539</v>
-      </c>
-      <c r="B3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E3" t="s">
-        <v>541</v>
-      </c>
-      <c r="F3" t="s">
-        <v>542</v>
-      </c>
-      <c r="G3" t="s">
-        <v>543</v>
-      </c>
-      <c r="I3" t="s">
-        <v>491</v>
-      </c>
-      <c r="J3" t="s">
-        <v>565</v>
-      </c>
-      <c r="K3" t="s">
-        <v>489</v>
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1.7</v>
+      </c>
+      <c r="G3">
+        <v>1.2</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>113</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>566</v>
+        <v>753</v>
       </c>
       <c r="M3" t="s">
-        <v>567</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>491</v>
-      </c>
-      <c r="B4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C4" t="s">
-        <v>541</v>
-      </c>
-      <c r="D4" t="s">
-        <v>541</v>
-      </c>
-      <c r="E4" t="s">
-        <v>493</v>
-      </c>
-      <c r="F4" t="s">
-        <v>544</v>
-      </c>
-      <c r="G4" t="s">
-        <v>493</v>
-      </c>
-      <c r="I4" t="s">
-        <v>491</v>
-      </c>
-      <c r="J4" t="s">
-        <v>565</v>
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>113</v>
       </c>
       <c r="K4" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="L4" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="M4" t="s">
-        <v>567</v>
+        <v>754</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>540</v>
-      </c>
-      <c r="B5" t="s">
-        <v>545</v>
-      </c>
-      <c r="C5" t="s">
-        <v>488</v>
-      </c>
-      <c r="D5" t="s">
-        <v>491</v>
-      </c>
-      <c r="E5" t="s">
-        <v>485</v>
-      </c>
-      <c r="F5" t="s">
-        <v>546</v>
-      </c>
-      <c r="G5" t="s">
-        <v>493</v>
-      </c>
-      <c r="I5" t="s">
-        <v>491</v>
-      </c>
-      <c r="J5" t="s">
-        <v>565</v>
-      </c>
-      <c r="K5" t="s">
-        <v>557</v>
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2.6</v>
+      </c>
+      <c r="F5">
+        <v>1.8</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>113</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>566</v>
+        <v>753</v>
       </c>
       <c r="M5" t="s">
-        <v>567</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>489</v>
-      </c>
-      <c r="B6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C6" t="s">
-        <v>547</v>
-      </c>
-      <c r="D6" t="s">
-        <v>488</v>
-      </c>
-      <c r="E6" t="s">
-        <v>490</v>
-      </c>
-      <c r="F6" t="s">
-        <v>492</v>
-      </c>
-      <c r="G6" t="s">
-        <v>548</v>
-      </c>
-      <c r="I6" t="s">
-        <v>491</v>
-      </c>
-      <c r="J6" t="s">
-        <v>569</v>
-      </c>
-      <c r="K6" t="s">
-        <v>555</v>
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F6">
+        <v>1.6</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>115</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
       </c>
       <c r="L6" t="s">
-        <v>566</v>
+        <v>753</v>
       </c>
       <c r="M6" t="s">
-        <v>570</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B7" t="s">
-        <v>549</v>
-      </c>
-      <c r="C7" t="s">
-        <v>484</v>
-      </c>
-      <c r="D7" t="s">
-        <v>539</v>
-      </c>
-      <c r="E7" t="s">
-        <v>550</v>
-      </c>
-      <c r="F7" t="s">
-        <v>541</v>
-      </c>
-      <c r="G7" t="s">
-        <v>551</v>
-      </c>
-      <c r="I7" t="s">
-        <v>544</v>
-      </c>
-      <c r="J7" t="s">
-        <v>571</v>
-      </c>
-      <c r="K7" t="s">
-        <v>541</v>
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2.5</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1.3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>68</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>572</v>
+        <v>756</v>
       </c>
       <c r="M7" t="s">
-        <v>573</v>
+        <v>757</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>488</v>
-      </c>
-      <c r="B8" t="s">
-        <v>487</v>
-      </c>
-      <c r="C8" t="s">
-        <v>486</v>
-      </c>
-      <c r="D8" t="s">
-        <v>489</v>
-      </c>
-      <c r="E8" t="s">
-        <v>552</v>
-      </c>
-      <c r="F8" t="s">
-        <v>553</v>
-      </c>
-      <c r="G8" t="s">
-        <v>554</v>
-      </c>
-      <c r="I8" t="s">
-        <v>541</v>
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>3.7</v>
+      </c>
+      <c r="F8">
+        <v>2.4</v>
+      </c>
+      <c r="G8">
+        <v>1.54</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>574</v>
-      </c>
-      <c r="K8" t="s">
-        <v>495</v>
+        <v>758</v>
       </c>
       <c r="L8" t="s">
-        <v>575</v>
+        <v>759</v>
       </c>
       <c r="M8" t="s">
-        <v>576</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>549</v>
-      </c>
-      <c r="B9" t="s">
-        <v>555</v>
-      </c>
-      <c r="C9" t="s">
-        <v>488</v>
-      </c>
-      <c r="D9" t="s">
-        <v>491</v>
-      </c>
-      <c r="E9" t="s">
-        <v>556</v>
-      </c>
-      <c r="F9" t="s">
-        <v>546</v>
-      </c>
-      <c r="G9" t="s">
-        <v>543</v>
-      </c>
-      <c r="I9" t="s">
-        <v>577</v>
-      </c>
-      <c r="J9" t="s">
-        <v>578</v>
-      </c>
-      <c r="K9" t="s">
-        <v>544</v>
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F9">
+        <v>1.8</v>
+      </c>
+      <c r="G9">
+        <v>1.2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>572</v>
+        <v>756</v>
       </c>
       <c r="M9" t="s">
-        <v>579</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>557</v>
-      </c>
-      <c r="B10" t="s">
-        <v>486</v>
-      </c>
-      <c r="C10" t="s">
-        <v>488</v>
-      </c>
-      <c r="D10" t="s">
-        <v>493</v>
-      </c>
-      <c r="E10" t="s">
-        <v>558</v>
-      </c>
-      <c r="F10" t="s">
-        <v>493</v>
-      </c>
-      <c r="G10" t="s">
-        <v>559</v>
-      </c>
-      <c r="I10" t="s">
-        <v>577</v>
-      </c>
-      <c r="J10" t="s">
-        <v>578</v>
-      </c>
-      <c r="K10" t="s">
-        <v>491</v>
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>5.7</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>1.9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>572</v>
+        <v>756</v>
       </c>
       <c r="M10" t="s">
-        <v>579</v>
+        <v>761</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B11" t="s">
-        <v>539</v>
-      </c>
-      <c r="C11" t="s">
-        <v>541</v>
-      </c>
-      <c r="D11" t="s">
-        <v>541</v>
-      </c>
-      <c r="E11" t="s">
-        <v>541</v>
-      </c>
-      <c r="F11" t="s">
-        <v>544</v>
-      </c>
-      <c r="G11" t="s">
-        <v>541</v>
-      </c>
-      <c r="I11" t="s">
-        <v>577</v>
-      </c>
-      <c r="J11" t="s">
-        <v>580</v>
-      </c>
-      <c r="K11" t="s">
-        <v>541</v>
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>309</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
       </c>
       <c r="L11" t="s">
-        <v>572</v>
+        <v>756</v>
       </c>
       <c r="M11" t="s">
-        <v>579</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I12" t="s">
-        <v>577</v>
-      </c>
-      <c r="J12" t="s">
-        <v>581</v>
-      </c>
-      <c r="K12" t="s">
-        <v>541</v>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>312</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>572</v>
+        <v>756</v>
       </c>
       <c r="M12" t="s">
-        <v>579</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -20654,7 +20355,7 @@
   <sheetData>
     <row r="1" spans="1:146" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>583</v>
+        <v>522</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -20663,14 +20364,14 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="I1" s="7" t="s">
-        <v>584</v>
+        <v>523</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="O1" s="9" t="s">
-        <v>586</v>
+        <v>525</v>
       </c>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
@@ -20678,14 +20379,14 @@
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
       <c r="V1" s="7" t="s">
-        <v>587</v>
+        <v>526</v>
       </c>
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
       <c r="AB1" s="7" t="s">
-        <v>588</v>
+        <v>527</v>
       </c>
       <c r="AC1" s="7"/>
       <c r="AD1" s="7"/>
@@ -20696,7 +20397,7 @@
       <c r="AI1" s="7"/>
       <c r="AJ1" s="7"/>
       <c r="AL1" s="7" t="s">
-        <v>604</v>
+        <v>543</v>
       </c>
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
@@ -20704,7 +20405,7 @@
       <c r="AP1" s="7"/>
       <c r="AQ1" s="7"/>
       <c r="AS1" s="7" t="s">
-        <v>608</v>
+        <v>547</v>
       </c>
       <c r="AT1" s="7"/>
       <c r="AU1" s="7"/>
@@ -20712,7 +20413,7 @@
       <c r="AW1" s="7"/>
       <c r="AX1" s="7"/>
       <c r="AZ1" s="7" t="s">
-        <v>780</v>
+        <v>719</v>
       </c>
       <c r="BA1" s="7"/>
       <c r="BB1" s="7"/>
@@ -20721,42 +20422,42 @@
       <c r="BE1" s="7"/>
       <c r="BF1" s="7"/>
       <c r="BH1" s="7" t="s">
-        <v>782</v>
+        <v>721</v>
       </c>
       <c r="BI1" s="7"/>
       <c r="BJ1" s="7"/>
       <c r="BK1" s="7"/>
       <c r="BM1" s="7" t="s">
-        <v>784</v>
+        <v>723</v>
       </c>
       <c r="BN1" s="7"/>
       <c r="BO1" s="7"/>
       <c r="BQ1" s="7" t="s">
-        <v>785</v>
+        <v>724</v>
       </c>
       <c r="BR1" s="7"/>
       <c r="BS1" s="7"/>
       <c r="BT1" s="7"/>
       <c r="BV1" s="7" t="s">
-        <v>786</v>
+        <v>762</v>
       </c>
       <c r="BW1" s="7"/>
       <c r="BY1" s="7" t="s">
-        <v>787</v>
+        <v>725</v>
       </c>
       <c r="BZ1" s="7"/>
       <c r="CA1" s="7"/>
       <c r="CB1" s="7"/>
       <c r="CC1" s="7"/>
       <c r="CE1" s="7" t="s">
-        <v>788</v>
+        <v>726</v>
       </c>
       <c r="CF1" s="7"/>
       <c r="CG1" s="7"/>
       <c r="CH1" s="7"/>
       <c r="CI1" s="7"/>
       <c r="CK1" s="8" t="s">
-        <v>789</v>
+        <v>727</v>
       </c>
       <c r="CL1" s="8"/>
       <c r="CM1" s="8"/>
@@ -20764,7 +20465,7 @@
       <c r="CO1" s="8"/>
       <c r="CP1" s="8"/>
       <c r="CR1" s="7" t="s">
-        <v>790</v>
+        <v>728</v>
       </c>
       <c r="CS1" s="7"/>
       <c r="CT1" s="7"/>
@@ -20773,13 +20474,13 @@
       <c r="CW1" s="7"/>
       <c r="CX1" s="7"/>
       <c r="CZ1" s="7" t="s">
-        <v>791</v>
+        <v>729</v>
       </c>
       <c r="DA1" s="7"/>
       <c r="DB1" s="7"/>
       <c r="DC1" s="7"/>
       <c r="DE1" s="7" t="s">
-        <v>794</v>
+        <v>732</v>
       </c>
       <c r="DF1" s="7"/>
       <c r="DG1" s="7"/>
@@ -20787,26 +20488,26 @@
       <c r="DI1" s="7"/>
       <c r="DJ1" s="7"/>
       <c r="DL1" s="7" t="s">
-        <v>795</v>
+        <v>733</v>
       </c>
       <c r="DM1" s="7"/>
       <c r="DN1" s="7"/>
       <c r="DO1" s="7"/>
       <c r="DP1" s="7"/>
       <c r="DR1" s="7" t="s">
-        <v>796</v>
+        <v>734</v>
       </c>
       <c r="DS1" s="7"/>
       <c r="DT1" s="7"/>
       <c r="DU1" s="7"/>
       <c r="DV1" s="7"/>
       <c r="DX1" s="7" t="s">
-        <v>797</v>
+        <v>735</v>
       </c>
       <c r="DY1" s="7"/>
       <c r="DZ1" s="7"/>
       <c r="EB1" s="7" t="s">
-        <v>798</v>
+        <v>736</v>
       </c>
       <c r="EC1" s="7"/>
       <c r="ED1" s="7"/>
@@ -20815,7 +20516,7 @@
       <c r="EG1" s="7"/>
       <c r="EH1" s="7"/>
       <c r="EJ1" s="7" t="s">
-        <v>799</v>
+        <v>737</v>
       </c>
       <c r="EK1" s="7"/>
       <c r="EL1" s="7"/>
@@ -20826,14 +20527,14 @@
     </row>
     <row r="2" spans="1:146" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>590</v>
+        <v>529</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>591</v>
+        <v>530</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
@@ -20841,26 +20542,26 @@
       </c>
       <c r="G2" s="7"/>
       <c r="I2" s="1" t="s">
-        <v>592</v>
+        <v>531</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>593</v>
+        <v>532</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>800</v>
+        <v>763</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>594</v>
+        <v>533</v>
       </c>
       <c r="O2"/>
       <c r="P2" t="s">
-        <v>592</v>
+        <v>531</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>595</v>
+        <v>534</v>
       </c>
       <c r="R2" t="s">
         <v>335</v>
@@ -20872,10 +20573,10 @@
         <v>238</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>592</v>
+        <v>531</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>596</v>
+        <v>535</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>335</v>
@@ -20904,7 +20605,7 @@
       </c>
       <c r="AJ2" s="7"/>
       <c r="AL2" s="1" t="s">
-        <v>605</v>
+        <v>544</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>318</v>
@@ -20916,7 +20617,7 @@
         <v>237</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>597</v>
+        <v>536</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>238</v>
@@ -20931,7 +20632,7 @@
         <v>237</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>597</v>
+        <v>536</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>238</v>
@@ -20949,16 +20650,16 @@
         <v>244</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>781</v>
+        <v>720</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>238</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>610</v>
+        <v>549</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>783</v>
+        <v>722</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>302</v>
@@ -20979,19 +20680,19 @@
         <v>0</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>611</v>
+        <v>550</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>612</v>
+        <v>551</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>613</v>
+        <v>552</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>614</v>
+        <v>553</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>615</v>
+        <v>554</v>
       </c>
       <c r="BZ2" s="1" t="s">
         <v>318</v>
@@ -21006,10 +20707,10 @@
         <v>238</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>803</v>
+        <v>740</v>
       </c>
       <c r="CF2" s="3" t="s">
-        <v>609</v>
+        <v>548</v>
       </c>
       <c r="CG2" s="1" t="s">
         <v>381</v>
@@ -21027,16 +20728,16 @@
         <v>40</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>616</v>
+        <v>555</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>617</v>
+        <v>556</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>618</v>
+        <v>557</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>619</v>
+        <v>558</v>
       </c>
       <c r="CR2" s="1" t="s">
         <v>0</v>
@@ -21045,46 +20746,46 @@
         <v>1</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>620</v>
+        <v>559</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>621</v>
+        <v>560</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>622</v>
+        <v>561</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>623</v>
+        <v>562</v>
       </c>
       <c r="CX2" s="1" t="s">
-        <v>624</v>
+        <v>563</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>625</v>
+        <v>564</v>
       </c>
       <c r="DB2" s="1" t="s">
-        <v>626</v>
+        <v>565</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>302</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="DH2" s="1" t="s">
-        <v>629</v>
+        <v>568</v>
       </c>
       <c r="DI2" s="1" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="DJ2" s="1" t="s">
         <v>302</v>
       </c>
       <c r="DL2" s="1" t="s">
-        <v>631</v>
+        <v>570</v>
       </c>
       <c r="DM2" s="1" t="s">
         <v>318</v>
@@ -21100,11 +20801,11 @@
       </c>
       <c r="DR2" s="5"/>
       <c r="DS2" s="7" t="s">
-        <v>810</v>
+        <v>743</v>
       </c>
       <c r="DT2" s="7"/>
       <c r="DU2" s="7" t="s">
-        <v>811</v>
+        <v>744</v>
       </c>
       <c r="DV2" s="7"/>
       <c r="DX2" s="1" t="s">
@@ -21117,7 +20818,7 @@
         <v>126</v>
       </c>
       <c r="EB2" s="1" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="EC2" s="1" t="s">
         <v>34</v>
@@ -21138,10 +20839,10 @@
         <v>238</v>
       </c>
       <c r="EJ2" s="1" t="s">
-        <v>633</v>
+        <v>572</v>
       </c>
       <c r="EK2" s="1" t="s">
-        <v>634</v>
+        <v>573</v>
       </c>
       <c r="EL2" s="1" t="s">
         <v>242</v>
@@ -21179,7 +20880,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -21203,7 +20904,7 @@
         <v>33</v>
       </c>
       <c r="V3" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
       <c r="W3">
         <v>10</v>
@@ -21224,25 +20925,25 @@
         <v>34</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>801</v>
+        <v>738</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>801</v>
+        <v>738</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>801</v>
+        <v>738</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>801</v>
+        <v>738</v>
       </c>
       <c r="AL3" t="s">
         <v>279</v>
@@ -21257,7 +20958,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS3" s="6" t="s">
-        <v>802</v>
+        <v>739</v>
       </c>
       <c r="AV3">
         <v>5.9989999999999997</v>
@@ -21278,25 +20979,25 @@
         <v>0.36</v>
       </c>
       <c r="BH3" t="s">
-        <v>635</v>
+        <v>574</v>
       </c>
       <c r="BI3" t="s">
-        <v>636</v>
+        <v>575</v>
       </c>
       <c r="BJ3" t="s">
-        <v>637</v>
+        <v>576</v>
       </c>
       <c r="BK3">
         <v>26</v>
       </c>
       <c r="BM3" t="s">
-        <v>638</v>
+        <v>577</v>
       </c>
       <c r="BN3" t="s">
-        <v>639</v>
+        <v>578</v>
       </c>
       <c r="BO3" t="s">
-        <v>640</v>
+        <v>579</v>
       </c>
       <c r="BQ3">
         <v>2</v>
@@ -21305,19 +21006,19 @@
         <v>1</v>
       </c>
       <c r="BS3" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT3" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="BV3" t="s">
-        <v>643</v>
+        <v>582</v>
       </c>
       <c r="BW3" t="s">
-        <v>644</v>
+        <v>583</v>
       </c>
       <c r="BY3" t="s">
-        <v>645</v>
+        <v>584</v>
       </c>
       <c r="CB3">
         <v>14.25</v>
@@ -21326,7 +21027,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="CE3" t="s">
-        <v>646</v>
+        <v>585</v>
       </c>
       <c r="CK3" t="s">
         <v>379</v>
@@ -21344,13 +21045,13 @@
         <v>1</v>
       </c>
       <c r="CV3" t="s">
-        <v>647</v>
+        <v>586</v>
       </c>
       <c r="CW3" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="CX3" t="s">
-        <v>648</v>
+        <v>587</v>
       </c>
       <c r="CZ3" t="s">
         <v>401</v>
@@ -21365,7 +21066,7 @@
         <v>14</v>
       </c>
       <c r="DE3" t="s">
-        <v>649</v>
+        <v>588</v>
       </c>
       <c r="DF3">
         <v>15</v>
@@ -21383,7 +21084,7 @@
         <v>45</v>
       </c>
       <c r="DL3" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="DM3">
         <v>11</v>
@@ -21398,7 +21099,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="DR3" s="1" t="s">
-        <v>631</v>
+        <v>570</v>
       </c>
       <c r="DS3" t="s">
         <v>34</v>
@@ -21422,7 +21123,7 @@
         <v>401</v>
       </c>
       <c r="EB3" t="s">
-        <v>651</v>
+        <v>590</v>
       </c>
       <c r="EC3">
         <v>447</v>
@@ -21434,7 +21135,7 @@
         <v>0</v>
       </c>
       <c r="EJ3" t="s">
-        <v>646</v>
+        <v>585</v>
       </c>
       <c r="EK3">
         <v>351</v>
@@ -21481,7 +21182,7 @@
         <v>1.44</v>
       </c>
       <c r="P4" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
       <c r="S4">
         <v>10.817</v>
@@ -21532,7 +21233,7 @@
         <v>0.84</v>
       </c>
       <c r="AL4" t="s">
-        <v>598</v>
+        <v>537</v>
       </c>
       <c r="AM4">
         <v>24</v>
@@ -21550,7 +21251,7 @@
         <v>6</v>
       </c>
       <c r="AS4" t="s">
-        <v>598</v>
+        <v>537</v>
       </c>
       <c r="AT4">
         <v>12</v>
@@ -21559,7 +21260,7 @@
         <v>261.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>649</v>
+        <v>588</v>
       </c>
       <c r="BA4">
         <v>219</v>
@@ -21574,25 +21275,25 @@
         <v>32083</v>
       </c>
       <c r="BH4" t="s">
-        <v>652</v>
+        <v>591</v>
       </c>
       <c r="BI4" t="s">
-        <v>653</v>
+        <v>592</v>
       </c>
       <c r="BJ4" t="s">
-        <v>654</v>
+        <v>593</v>
       </c>
       <c r="BK4">
         <v>81</v>
       </c>
       <c r="BM4" t="s">
-        <v>655</v>
+        <v>594</v>
       </c>
       <c r="BN4" t="s">
-        <v>656</v>
+        <v>595</v>
       </c>
       <c r="BO4" t="s">
-        <v>657</v>
+        <v>596</v>
       </c>
       <c r="BQ4">
         <v>3</v>
@@ -21601,16 +21302,16 @@
         <v>4</v>
       </c>
       <c r="BS4" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT4" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="BW4" t="s">
-        <v>660</v>
+        <v>599</v>
       </c>
       <c r="BY4" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BZ4">
         <v>33</v>
@@ -21625,16 +21326,16 @@
         <v>6</v>
       </c>
       <c r="CE4" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="CF4" t="s">
-        <v>661</v>
+        <v>600</v>
       </c>
       <c r="CG4" t="s">
-        <v>662</v>
+        <v>601</v>
       </c>
       <c r="CH4" t="s">
-        <v>663</v>
+        <v>602</v>
       </c>
       <c r="CI4">
         <v>75</v>
@@ -21646,7 +21347,7 @@
         <v>41</v>
       </c>
       <c r="CM4" t="s">
-        <v>664</v>
+        <v>603</v>
       </c>
       <c r="CN4" t="s">
         <v>401</v>
@@ -21655,7 +21356,7 @@
         <v>149</v>
       </c>
       <c r="CP4" t="s">
-        <v>665</v>
+        <v>604</v>
       </c>
       <c r="CS4">
         <v>5</v>
@@ -21667,16 +21368,16 @@
         <v>1</v>
       </c>
       <c r="CV4" t="s">
-        <v>666</v>
+        <v>605</v>
       </c>
       <c r="CW4" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="CX4" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="CZ4" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="DA4">
         <v>11</v>
@@ -21688,7 +21389,7 @@
         <v>11</v>
       </c>
       <c r="DE4" t="s">
-        <v>667</v>
+        <v>606</v>
       </c>
       <c r="DF4">
         <v>1</v>
@@ -21706,7 +21407,7 @@
         <v>9</v>
       </c>
       <c r="DL4" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="DM4">
         <v>5</v>
@@ -21736,10 +21437,10 @@
         <v>9.6</v>
       </c>
       <c r="DZ4" t="s">
-        <v>668</v>
+        <v>607</v>
       </c>
       <c r="EB4" t="s">
-        <v>669</v>
+        <v>608</v>
       </c>
       <c r="EC4">
         <v>260</v>
@@ -21754,7 +21455,7 @@
         <v>53513</v>
       </c>
       <c r="EJ4" t="s">
-        <v>669</v>
+        <v>608</v>
       </c>
       <c r="EK4">
         <v>204</v>
@@ -21813,7 +21514,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="V5" t="s">
-        <v>599</v>
+        <v>538</v>
       </c>
       <c r="W5">
         <v>10</v>
@@ -21855,7 +21556,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AL5" t="s">
-        <v>600</v>
+        <v>539</v>
       </c>
       <c r="AM5">
         <v>31</v>
@@ -21873,7 +21574,7 @@
         <v>6</v>
       </c>
       <c r="AS5" t="s">
-        <v>600</v>
+        <v>539</v>
       </c>
       <c r="AT5">
         <v>16</v>
@@ -21885,7 +21586,7 @@
         <v>6</v>
       </c>
       <c r="AZ5" t="s">
-        <v>670</v>
+        <v>609</v>
       </c>
       <c r="BA5">
         <v>68</v>
@@ -21912,7 +21613,7 @@
         <v>107</v>
       </c>
       <c r="BM5" t="s">
-        <v>671</v>
+        <v>610</v>
       </c>
       <c r="BN5" t="s">
         <v>380</v>
@@ -21927,19 +21628,19 @@
         <v>1</v>
       </c>
       <c r="BS5" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT5" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="BV5" t="s">
-        <v>672</v>
+        <v>611</v>
       </c>
       <c r="BW5" t="s">
-        <v>673</v>
+        <v>612</v>
       </c>
       <c r="BY5" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="BZ5">
         <v>13</v>
@@ -21954,16 +21655,16 @@
         <v>6</v>
       </c>
       <c r="CE5" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="CF5" t="s">
-        <v>674</v>
+        <v>613</v>
       </c>
       <c r="CG5" t="s">
-        <v>675</v>
+        <v>614</v>
       </c>
       <c r="CH5" t="s">
-        <v>676</v>
+        <v>615</v>
       </c>
       <c r="CI5">
         <v>53</v>
@@ -21975,16 +21676,16 @@
         <v>41</v>
       </c>
       <c r="CM5" t="s">
-        <v>664</v>
+        <v>603</v>
       </c>
       <c r="CN5" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="CO5">
         <v>152</v>
       </c>
       <c r="CP5" t="s">
-        <v>665</v>
+        <v>604</v>
       </c>
       <c r="CS5">
         <v>6</v>
@@ -21996,16 +21697,16 @@
         <v>1</v>
       </c>
       <c r="CV5" t="s">
-        <v>666</v>
+        <v>605</v>
       </c>
       <c r="CW5" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="CX5" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="CZ5" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="DA5">
         <v>4</v>
@@ -22035,7 +21736,7 @@
         <v>54</v>
       </c>
       <c r="DL5" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="DM5">
         <v>4</v>
@@ -22044,7 +21745,7 @@
         <v>138</v>
       </c>
       <c r="DR5" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="DS5">
         <v>2</v>
@@ -22065,10 +21766,10 @@
         <v>18.2</v>
       </c>
       <c r="DZ5" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
       <c r="EB5" t="s">
-        <v>679</v>
+        <v>618</v>
       </c>
       <c r="EC5">
         <v>187</v>
@@ -22083,7 +21784,7 @@
         <v>46615</v>
       </c>
       <c r="EJ5" t="s">
-        <v>679</v>
+        <v>618</v>
       </c>
       <c r="EK5">
         <v>147</v>
@@ -22136,7 +21837,7 @@
         <v>-0.09</v>
       </c>
       <c r="P6" t="s">
-        <v>599</v>
+        <v>538</v>
       </c>
       <c r="S6">
         <v>22.154</v>
@@ -22172,7 +21873,7 @@
         <v>1.25</v>
       </c>
       <c r="AL6" t="s">
-        <v>601</v>
+        <v>540</v>
       </c>
       <c r="AM6">
         <v>29</v>
@@ -22190,7 +21891,7 @@
         <v>6</v>
       </c>
       <c r="AS6" t="s">
-        <v>601</v>
+        <v>540</v>
       </c>
       <c r="AT6">
         <v>10</v>
@@ -22211,13 +21912,13 @@
         <v>0.01</v>
       </c>
       <c r="BM6" t="s">
-        <v>680</v>
+        <v>619</v>
       </c>
       <c r="BN6" t="s">
-        <v>681</v>
+        <v>620</v>
       </c>
       <c r="BO6" t="s">
-        <v>681</v>
+        <v>620</v>
       </c>
       <c r="BQ6">
         <v>5</v>
@@ -22226,16 +21927,16 @@
         <v>1</v>
       </c>
       <c r="BS6" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT6" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="BW6" t="s">
-        <v>682</v>
+        <v>621</v>
       </c>
       <c r="BY6" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="BZ6">
         <v>12</v>
@@ -22250,16 +21951,16 @@
         <v>6</v>
       </c>
       <c r="CE6" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="CF6" t="s">
-        <v>683</v>
+        <v>622</v>
       </c>
       <c r="CG6" t="s">
-        <v>684</v>
+        <v>623</v>
       </c>
       <c r="CH6" t="s">
-        <v>685</v>
+        <v>624</v>
       </c>
       <c r="CI6">
         <v>23</v>
@@ -22271,16 +21972,16 @@
         <v>44</v>
       </c>
       <c r="CM6" t="s">
-        <v>686</v>
+        <v>625</v>
       </c>
       <c r="CN6" t="s">
-        <v>687</v>
+        <v>626</v>
       </c>
       <c r="CO6" t="s">
-        <v>688</v>
+        <v>627</v>
       </c>
       <c r="CP6" t="s">
-        <v>688</v>
+        <v>627</v>
       </c>
       <c r="CS6">
         <v>11</v>
@@ -22292,16 +21993,16 @@
         <v>1</v>
       </c>
       <c r="CV6" t="s">
-        <v>666</v>
+        <v>605</v>
       </c>
       <c r="CW6" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="CX6" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="CZ6" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="DA6">
         <v>4</v>
@@ -22313,10 +22014,10 @@
         <v>5</v>
       </c>
       <c r="DE6" t="s">
-        <v>809</v>
+        <v>764</v>
       </c>
       <c r="DL6" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="DM6">
         <v>6</v>
@@ -22325,7 +22026,7 @@
         <v>226.5</v>
       </c>
       <c r="DR6" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="DS6">
         <v>0</v>
@@ -22346,10 +22047,10 @@
         <v>14.61</v>
       </c>
       <c r="DZ6" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="EB6" t="s">
-        <v>690</v>
+        <v>629</v>
       </c>
       <c r="EC6">
         <v>252</v>
@@ -22361,7 +22062,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="EJ6" t="s">
-        <v>691</v>
+        <v>630</v>
       </c>
       <c r="EK6">
         <v>216</v>
@@ -22444,7 +22145,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>602</v>
+        <v>541</v>
       </c>
       <c r="AM7">
         <v>6</v>
@@ -22459,7 +22160,7 @@
         <v>6</v>
       </c>
       <c r="AS7" t="s">
-        <v>602</v>
+        <v>541</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -22474,7 +22175,7 @@
         <v>6</v>
       </c>
       <c r="AZ7" t="s">
-        <v>649</v>
+        <v>588</v>
       </c>
       <c r="BA7">
         <v>76</v>
@@ -22489,7 +22190,7 @@
         <v>3355</v>
       </c>
       <c r="BM7" t="s">
-        <v>692</v>
+        <v>631</v>
       </c>
       <c r="BN7" t="s">
         <v>6</v>
@@ -22504,19 +22205,19 @@
         <v>1</v>
       </c>
       <c r="BS7" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT7" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="BV7" t="s">
-        <v>693</v>
+        <v>632</v>
       </c>
       <c r="BW7" t="s">
-        <v>694</v>
+        <v>633</v>
       </c>
       <c r="BY7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="BZ7">
         <v>28</v>
@@ -22531,16 +22232,16 @@
         <v>6</v>
       </c>
       <c r="CE7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="CF7" t="s">
-        <v>695</v>
+        <v>634</v>
       </c>
       <c r="CG7" t="s">
-        <v>696</v>
+        <v>635</v>
       </c>
       <c r="CH7" t="s">
-        <v>697</v>
+        <v>636</v>
       </c>
       <c r="CI7">
         <v>89</v>
@@ -22552,16 +22253,16 @@
         <v>41</v>
       </c>
       <c r="CM7" t="s">
-        <v>686</v>
+        <v>625</v>
       </c>
       <c r="CN7" t="s">
-        <v>698</v>
+        <v>637</v>
       </c>
       <c r="CO7">
         <v>190</v>
       </c>
       <c r="CP7" t="s">
-        <v>665</v>
+        <v>604</v>
       </c>
       <c r="CS7">
         <v>15</v>
@@ -22573,16 +22274,16 @@
         <v>1</v>
       </c>
       <c r="CV7" t="s">
-        <v>699</v>
+        <v>638</v>
       </c>
       <c r="CW7" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="CX7" t="s">
-        <v>700</v>
+        <v>639</v>
       </c>
       <c r="CZ7" t="s">
-        <v>701</v>
+        <v>640</v>
       </c>
       <c r="DA7">
         <v>4</v>
@@ -22594,7 +22295,7 @@
         <v>6</v>
       </c>
       <c r="DL7" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="DM7">
         <v>10</v>
@@ -22603,7 +22304,7 @@
         <v>379.5</v>
       </c>
       <c r="DR7" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="DS7">
         <v>1</v>
@@ -22624,10 +22325,10 @@
         <v>11.51</v>
       </c>
       <c r="DZ7" t="s">
-        <v>703</v>
+        <v>642</v>
       </c>
       <c r="EB7" t="s">
-        <v>669</v>
+        <v>608</v>
       </c>
       <c r="EC7">
         <v>260</v>
@@ -22642,7 +22343,7 @@
         <v>40056.5</v>
       </c>
       <c r="EJ7" t="s">
-        <v>669</v>
+        <v>608</v>
       </c>
       <c r="EK7">
         <v>168</v>
@@ -22671,7 +22372,7 @@
         <v>0.72</v>
       </c>
       <c r="P8" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
       <c r="S8">
         <v>3.387</v>
@@ -22707,7 +22408,7 @@
         <v>0.66</v>
       </c>
       <c r="AL8" t="s">
-        <v>603</v>
+        <v>542</v>
       </c>
       <c r="AM8">
         <v>4</v>
@@ -22725,7 +22426,7 @@
         <v>6</v>
       </c>
       <c r="AS8" t="s">
-        <v>603</v>
+        <v>542</v>
       </c>
       <c r="AT8">
         <v>2</v>
@@ -22740,7 +22441,7 @@
         <v>6</v>
       </c>
       <c r="AZ8" t="s">
-        <v>670</v>
+        <v>609</v>
       </c>
       <c r="BA8">
         <v>18</v>
@@ -22755,7 +22456,7 @@
         <v>1110</v>
       </c>
       <c r="BM8" t="s">
-        <v>704</v>
+        <v>643</v>
       </c>
       <c r="BN8" t="s">
         <v>6</v>
@@ -22767,16 +22468,16 @@
         <v>1</v>
       </c>
       <c r="BS8" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT8" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="BW8" t="s">
-        <v>705</v>
+        <v>644</v>
       </c>
       <c r="BY8" t="s">
-        <v>706</v>
+        <v>645</v>
       </c>
       <c r="CB8">
         <v>6.6890000000000001</v>
@@ -22806,7 +22507,7 @@
         <v>42</v>
       </c>
       <c r="CM8" t="s">
-        <v>664</v>
+        <v>603</v>
       </c>
       <c r="CN8" t="s">
         <v>401</v>
@@ -22815,7 +22516,7 @@
         <v>135</v>
       </c>
       <c r="CP8" t="s">
-        <v>665</v>
+        <v>604</v>
       </c>
       <c r="CS8">
         <v>37</v>
@@ -22827,16 +22528,16 @@
         <v>1</v>
       </c>
       <c r="CV8" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="CW8" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="CX8" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="CZ8" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="DA8">
         <v>6</v>
@@ -22848,7 +22549,7 @@
         <v>10</v>
       </c>
       <c r="DL8" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="DM8">
         <v>4</v>
@@ -22857,7 +22558,7 @@
         <v>45</v>
       </c>
       <c r="DR8" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="DS8">
         <v>1</v>
@@ -22878,10 +22579,10 @@
         <v>18.260000000000002</v>
       </c>
       <c r="DZ8" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="EB8" t="s">
-        <v>679</v>
+        <v>618</v>
       </c>
       <c r="EC8">
         <v>54</v>
@@ -22896,7 +22597,7 @@
         <v>9398.5</v>
       </c>
       <c r="EJ8" t="s">
-        <v>679</v>
+        <v>618</v>
       </c>
       <c r="EK8">
         <v>48</v>
@@ -22928,7 +22629,7 @@
       </c>
       <c r="G9" s="8"/>
       <c r="I9" t="s">
-        <v>599</v>
+        <v>538</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -22991,7 +22692,7 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="AS9" t="s">
-        <v>708</v>
+        <v>647</v>
       </c>
       <c r="AV9">
         <v>6.5049999999999999</v>
@@ -23012,13 +22713,13 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="BM9" t="s">
-        <v>709</v>
+        <v>648</v>
       </c>
       <c r="BN9" t="s">
-        <v>710</v>
+        <v>649</v>
       </c>
       <c r="BO9" t="s">
-        <v>711</v>
+        <v>650</v>
       </c>
       <c r="BQ9">
         <v>8</v>
@@ -23027,19 +22728,19 @@
         <v>1</v>
       </c>
       <c r="BS9" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT9" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="BV9" t="s">
-        <v>712</v>
+        <v>651</v>
       </c>
       <c r="BW9" t="s">
-        <v>713</v>
+        <v>652</v>
       </c>
       <c r="BY9" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BZ9">
         <v>16</v>
@@ -23054,7 +22755,7 @@
         <v>6</v>
       </c>
       <c r="CE9" t="s">
-        <v>804</v>
+        <v>741</v>
       </c>
       <c r="CK9">
         <v>359</v>
@@ -23063,16 +22764,16 @@
         <v>42</v>
       </c>
       <c r="CM9" t="s">
-        <v>686</v>
+        <v>625</v>
       </c>
       <c r="CN9" t="s">
         <v>401</v>
       </c>
       <c r="CO9" t="s">
-        <v>714</v>
+        <v>653</v>
       </c>
       <c r="CP9" t="s">
-        <v>714</v>
+        <v>653</v>
       </c>
       <c r="CS9">
         <v>68</v>
@@ -23084,16 +22785,16 @@
         <v>2</v>
       </c>
       <c r="CV9" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="CW9" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="CX9" t="s">
-        <v>715</v>
+        <v>654</v>
       </c>
       <c r="CZ9" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="DA9">
         <v>4</v>
@@ -23105,7 +22806,7 @@
         <v>4</v>
       </c>
       <c r="DL9" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="DM9">
         <v>6</v>
@@ -23114,7 +22815,7 @@
         <v>185</v>
       </c>
       <c r="DR9" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="DS9">
         <v>2</v>
@@ -23135,7 +22836,7 @@
         <v>18.46</v>
       </c>
       <c r="DZ9" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="EB9" t="s">
         <v>36</v>
@@ -23150,7 +22851,7 @@
         <v>0.23</v>
       </c>
       <c r="EJ9" t="s">
-        <v>716</v>
+        <v>655</v>
       </c>
       <c r="EK9">
         <v>135</v>
@@ -23194,7 +22895,7 @@
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="P10" t="s">
-        <v>599</v>
+        <v>538</v>
       </c>
       <c r="S10">
         <v>10.388</v>
@@ -23230,7 +22931,7 @@
         <v>0.33</v>
       </c>
       <c r="AL10" t="s">
-        <v>598</v>
+        <v>537</v>
       </c>
       <c r="AM10">
         <v>23</v>
@@ -23245,7 +22946,7 @@
         <v>6</v>
       </c>
       <c r="AS10" t="s">
-        <v>598</v>
+        <v>537</v>
       </c>
       <c r="AT10">
         <v>13</v>
@@ -23254,7 +22955,7 @@
         <v>328.5</v>
       </c>
       <c r="AZ10" t="s">
-        <v>649</v>
+        <v>588</v>
       </c>
       <c r="BA10">
         <v>61</v>
@@ -23269,13 +22970,13 @@
         <v>3016</v>
       </c>
       <c r="BM10" t="s">
-        <v>717</v>
+        <v>656</v>
       </c>
       <c r="BN10" t="s">
-        <v>718</v>
+        <v>657</v>
       </c>
       <c r="BO10" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="BQ10">
         <v>9</v>
@@ -23284,16 +22985,16 @@
         <v>4</v>
       </c>
       <c r="BS10" t="s">
-        <v>698</v>
+        <v>637</v>
       </c>
       <c r="BT10" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="BW10" t="s">
-        <v>720</v>
+        <v>659</v>
       </c>
       <c r="BY10" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="BZ10">
         <v>11</v>
@@ -23308,16 +23009,16 @@
         <v>6</v>
       </c>
       <c r="CE10" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="CF10" t="s">
-        <v>721</v>
+        <v>660</v>
       </c>
       <c r="CG10" t="s">
-        <v>722</v>
+        <v>661</v>
       </c>
       <c r="CH10" t="s">
-        <v>723</v>
+        <v>662</v>
       </c>
       <c r="CI10">
         <v>65</v>
@@ -23329,7 +23030,7 @@
         <v>44</v>
       </c>
       <c r="CM10" t="s">
-        <v>724</v>
+        <v>663</v>
       </c>
       <c r="CN10" t="s">
         <v>401</v>
@@ -23338,7 +23039,7 @@
         <v>42</v>
       </c>
       <c r="CP10" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="CS10">
         <v>69</v>
@@ -23350,16 +23051,16 @@
         <v>2</v>
       </c>
       <c r="CV10" t="s">
-        <v>647</v>
+        <v>586</v>
       </c>
       <c r="CW10" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="CX10" t="s">
-        <v>648</v>
+        <v>587</v>
       </c>
       <c r="CZ10" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="DA10">
         <v>6</v>
@@ -23371,7 +23072,7 @@
         <v>6</v>
       </c>
       <c r="DL10" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="DM10">
         <v>5</v>
@@ -23380,7 +23081,7 @@
         <v>131.5</v>
       </c>
       <c r="DR10" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="DS10">
         <v>0</v>
@@ -23401,10 +23102,10 @@
         <v>17.68</v>
       </c>
       <c r="DZ10" t="s">
-        <v>703</v>
+        <v>642</v>
       </c>
       <c r="EB10" t="s">
-        <v>669</v>
+        <v>608</v>
       </c>
       <c r="EC10">
         <v>239</v>
@@ -23419,7 +23120,7 @@
         <v>33791.5</v>
       </c>
       <c r="EJ10" t="s">
-        <v>669</v>
+        <v>608</v>
       </c>
       <c r="EK10">
         <v>36</v>
@@ -23505,7 +23206,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>600</v>
+        <v>539</v>
       </c>
       <c r="AM11">
         <v>32</v>
@@ -23520,7 +23221,7 @@
         <v>6</v>
       </c>
       <c r="AS11" t="s">
-        <v>600</v>
+        <v>539</v>
       </c>
       <c r="AT11">
         <v>16</v>
@@ -23535,7 +23236,7 @@
         <v>6</v>
       </c>
       <c r="AZ11" t="s">
-        <v>670</v>
+        <v>609</v>
       </c>
       <c r="BA11">
         <v>31</v>
@@ -23550,13 +23251,13 @@
         <v>1262</v>
       </c>
       <c r="BM11" t="s">
-        <v>725</v>
+        <v>664</v>
       </c>
       <c r="BN11" t="s">
-        <v>726</v>
+        <v>665</v>
       </c>
       <c r="BO11" t="s">
-        <v>726</v>
+        <v>665</v>
       </c>
       <c r="BQ11">
         <v>11</v>
@@ -23565,16 +23266,16 @@
         <v>1</v>
       </c>
       <c r="BS11" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT11" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="BW11" t="s">
-        <v>727</v>
+        <v>666</v>
       </c>
       <c r="BY11" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="BZ11">
         <v>7</v>
@@ -23589,16 +23290,16 @@
         <v>6</v>
       </c>
       <c r="CE11" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="CF11" t="s">
-        <v>728</v>
+        <v>667</v>
       </c>
       <c r="CG11" t="s">
-        <v>729</v>
+        <v>668</v>
       </c>
       <c r="CH11" t="s">
-        <v>730</v>
+        <v>669</v>
       </c>
       <c r="CI11">
         <v>53</v>
@@ -23610,10 +23311,10 @@
         <v>43</v>
       </c>
       <c r="CM11" t="s">
-        <v>724</v>
+        <v>663</v>
       </c>
       <c r="CN11" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="CO11">
         <v>41</v>
@@ -23631,28 +23332,28 @@
         <v>2</v>
       </c>
       <c r="CV11" t="s">
-        <v>647</v>
+        <v>586</v>
       </c>
       <c r="CW11" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="CX11" t="s">
-        <v>648</v>
+        <v>587</v>
       </c>
       <c r="CZ11" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="DA11">
         <v>4</v>
       </c>
       <c r="DB11" t="s">
-        <v>792</v>
+        <v>730</v>
       </c>
       <c r="DC11">
         <v>5</v>
       </c>
       <c r="DL11" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
       <c r="DM11">
         <v>2</v>
@@ -23661,7 +23362,7 @@
         <v>28</v>
       </c>
       <c r="DR11" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="DS11">
         <v>2</v>
@@ -23682,10 +23383,10 @@
         <v>9.92</v>
       </c>
       <c r="DZ11" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="EB11" t="s">
-        <v>679</v>
+        <v>618</v>
       </c>
       <c r="EC11">
         <v>48</v>
@@ -23700,7 +23401,7 @@
         <v>7536.5</v>
       </c>
       <c r="EJ11" t="s">
-        <v>679</v>
+        <v>618</v>
       </c>
       <c r="EK11">
         <v>99</v>
@@ -23738,10 +23439,10 @@
         <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>585</v>
+        <v>524</v>
       </c>
       <c r="P12" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
       <c r="S12">
         <v>23.553999999999998</v>
@@ -23777,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>601</v>
+        <v>540</v>
       </c>
       <c r="AM12">
         <v>29</v>
@@ -23792,7 +23493,7 @@
         <v>6</v>
       </c>
       <c r="AS12" t="s">
-        <v>601</v>
+        <v>540</v>
       </c>
       <c r="AT12">
         <v>10</v>
@@ -23816,13 +23517,13 @@
         <v>0.54</v>
       </c>
       <c r="BM12" t="s">
-        <v>731</v>
+        <v>670</v>
       </c>
       <c r="BN12" t="s">
-        <v>732</v>
+        <v>671</v>
       </c>
       <c r="BO12" t="s">
-        <v>732</v>
+        <v>671</v>
       </c>
       <c r="BQ12">
         <v>12</v>
@@ -23831,13 +23532,13 @@
         <v>2</v>
       </c>
       <c r="BS12" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT12" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="BY12" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="BZ12">
         <v>20</v>
@@ -23852,16 +23553,16 @@
         <v>6</v>
       </c>
       <c r="CE12" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="CF12" t="s">
-        <v>733</v>
+        <v>672</v>
       </c>
       <c r="CG12" t="s">
-        <v>734</v>
+        <v>673</v>
       </c>
       <c r="CH12" t="s">
-        <v>735</v>
+        <v>674</v>
       </c>
       <c r="CI12">
         <v>23</v>
@@ -23873,16 +23574,16 @@
         <v>41</v>
       </c>
       <c r="CM12" t="s">
-        <v>664</v>
+        <v>603</v>
       </c>
       <c r="CN12" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="CO12">
         <v>106</v>
       </c>
       <c r="CP12" t="s">
-        <v>665</v>
+        <v>604</v>
       </c>
       <c r="CS12">
         <v>104</v>
@@ -23894,16 +23595,16 @@
         <v>1</v>
       </c>
       <c r="CV12" t="s">
-        <v>666</v>
+        <v>605</v>
       </c>
       <c r="CW12" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="CX12" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="CZ12" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
       <c r="DA12">
         <v>2</v>
@@ -23915,7 +23616,7 @@
         <v>2</v>
       </c>
       <c r="DR12" t="s">
-        <v>736</v>
+        <v>675</v>
       </c>
       <c r="DS12">
         <v>1</v>
@@ -23936,13 +23637,13 @@
         <v>21.25</v>
       </c>
       <c r="DZ12" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="EB12" t="s">
-        <v>737</v>
+        <v>676</v>
       </c>
       <c r="EJ12" t="s">
-        <v>738</v>
+        <v>677</v>
       </c>
       <c r="EK12">
         <v>204</v>
@@ -24013,7 +23714,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>602</v>
+        <v>541</v>
       </c>
       <c r="AM13">
         <v>6</v>
@@ -24028,7 +23729,7 @@
         <v>6</v>
       </c>
       <c r="AS13" t="s">
-        <v>602</v>
+        <v>541</v>
       </c>
       <c r="AT13">
         <v>2</v>
@@ -24043,7 +23744,7 @@
         <v>6</v>
       </c>
       <c r="AZ13" t="s">
-        <v>649</v>
+        <v>588</v>
       </c>
       <c r="BA13">
         <v>82</v>
@@ -24058,13 +23759,13 @@
         <v>4252</v>
       </c>
       <c r="BM13" t="s">
-        <v>739</v>
+        <v>678</v>
       </c>
       <c r="BN13" t="s">
-        <v>740</v>
+        <v>679</v>
       </c>
       <c r="BO13" t="s">
-        <v>740</v>
+        <v>679</v>
       </c>
       <c r="BQ13">
         <v>13</v>
@@ -24073,22 +23774,22 @@
         <v>2</v>
       </c>
       <c r="BS13" t="s">
-        <v>741</v>
+        <v>680</v>
       </c>
       <c r="BT13" t="s">
-        <v>741</v>
+        <v>680</v>
       </c>
       <c r="CE13" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="CF13" t="s">
-        <v>742</v>
+        <v>681</v>
       </c>
       <c r="CG13" t="s">
-        <v>743</v>
+        <v>682</v>
       </c>
       <c r="CH13" t="s">
-        <v>744</v>
+        <v>683</v>
       </c>
       <c r="CI13">
         <v>86</v>
@@ -24100,7 +23801,7 @@
         <v>43</v>
       </c>
       <c r="CM13" t="s">
-        <v>664</v>
+        <v>603</v>
       </c>
       <c r="CN13" t="s">
         <v>401</v>
@@ -24109,7 +23810,7 @@
         <v>61</v>
       </c>
       <c r="CP13" t="s">
-        <v>665</v>
+        <v>604</v>
       </c>
       <c r="CS13">
         <v>121</v>
@@ -24121,13 +23822,13 @@
         <v>1</v>
       </c>
       <c r="CV13" t="s">
-        <v>647</v>
+        <v>586</v>
       </c>
       <c r="CW13" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="CX13" t="s">
-        <v>648</v>
+        <v>587</v>
       </c>
       <c r="CZ13" t="s">
         <v>302</v>
@@ -24142,7 +23843,7 @@
         <v>68</v>
       </c>
       <c r="DR13" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
       <c r="DS13">
         <v>1</v>
@@ -24163,13 +23864,13 @@
         <v>14.53</v>
       </c>
       <c r="DZ13" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="EB13" t="s">
-        <v>596</v>
+        <v>535</v>
       </c>
       <c r="EJ13" t="s">
-        <v>745</v>
+        <v>684</v>
       </c>
     </row>
     <row r="14" spans="1:146" x14ac:dyDescent="0.25">
@@ -24195,7 +23896,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>599</v>
+        <v>538</v>
       </c>
       <c r="S14">
         <v>18.832999999999998</v>
@@ -24231,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>603</v>
+        <v>542</v>
       </c>
       <c r="AM14">
         <v>4</v>
@@ -24246,7 +23947,7 @@
         <v>6</v>
       </c>
       <c r="AS14" t="s">
-        <v>603</v>
+        <v>542</v>
       </c>
       <c r="AT14">
         <v>2</v>
@@ -24261,7 +23962,7 @@
         <v>6</v>
       </c>
       <c r="AZ14" t="s">
-        <v>670</v>
+        <v>609</v>
       </c>
       <c r="BA14">
         <v>19</v>
@@ -24276,13 +23977,13 @@
         <v>899</v>
       </c>
       <c r="BM14" t="s">
-        <v>746</v>
+        <v>685</v>
       </c>
       <c r="BN14" t="s">
-        <v>747</v>
+        <v>686</v>
       </c>
       <c r="BO14" t="s">
-        <v>647</v>
+        <v>586</v>
       </c>
       <c r="BQ14">
         <v>15</v>
@@ -24291,10 +23992,10 @@
         <v>1</v>
       </c>
       <c r="BS14" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT14" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="CE14" t="s">
         <v>302</v>
@@ -24318,16 +24019,16 @@
         <v>42</v>
       </c>
       <c r="CM14" t="s">
-        <v>686</v>
+        <v>625</v>
       </c>
       <c r="CN14" t="s">
-        <v>748</v>
+        <v>687</v>
       </c>
       <c r="CO14">
         <v>280</v>
       </c>
       <c r="CP14" t="s">
-        <v>749</v>
+        <v>688</v>
       </c>
       <c r="CR14">
         <v>2</v>
@@ -24342,16 +24043,16 @@
         <v>1</v>
       </c>
       <c r="CV14" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="CW14" t="s">
+        <v>628</v>
+      </c>
+      <c r="CX14" t="s">
         <v>689</v>
       </c>
-      <c r="CX14" t="s">
-        <v>750</v>
-      </c>
       <c r="CZ14" s="7" t="s">
-        <v>793</v>
+        <v>731</v>
       </c>
       <c r="DA14" s="7"/>
       <c r="DB14" s="7"/>
@@ -24378,10 +24079,10 @@
         <v>10.3</v>
       </c>
       <c r="DZ14" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="EB14" t="s">
-        <v>751</v>
+        <v>690</v>
       </c>
       <c r="EC14">
         <v>160</v>
@@ -24437,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="6" t="s">
-        <v>606</v>
+        <v>545</v>
       </c>
       <c r="AV15">
         <v>6.0019999999999998</v>
@@ -24449,13 +24150,13 @@
         <v>0.19900000000000001</v>
       </c>
       <c r="BM15" t="s">
-        <v>752</v>
+        <v>691</v>
       </c>
       <c r="BN15" t="s">
-        <v>753</v>
+        <v>692</v>
       </c>
       <c r="BO15" t="s">
-        <v>753</v>
+        <v>692</v>
       </c>
       <c r="BQ15">
         <v>18</v>
@@ -24464,13 +24165,13 @@
         <v>2</v>
       </c>
       <c r="BS15" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT15" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
       <c r="CE15" t="s">
-        <v>805</v>
+        <v>742</v>
       </c>
       <c r="CK15">
         <v>280</v>
@@ -24479,16 +24180,16 @@
         <v>41</v>
       </c>
       <c r="CM15" t="s">
-        <v>664</v>
+        <v>603</v>
       </c>
       <c r="CN15" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="CO15">
         <v>279</v>
       </c>
       <c r="CP15" t="s">
-        <v>754</v>
+        <v>693</v>
       </c>
       <c r="CS15">
         <v>18</v>
@@ -24500,13 +24201,13 @@
         <v>1</v>
       </c>
       <c r="CV15" t="s">
-        <v>666</v>
+        <v>605</v>
       </c>
       <c r="CW15" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
       <c r="CX15" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
       <c r="DX15">
         <v>146</v>
@@ -24515,10 +24216,10 @@
         <v>10.16</v>
       </c>
       <c r="DZ15" t="s">
-        <v>703</v>
+        <v>642</v>
       </c>
       <c r="EB15" t="s">
-        <v>669</v>
+        <v>608</v>
       </c>
       <c r="EC15">
         <v>21</v>
@@ -24550,7 +24251,7 @@
     </row>
     <row r="16" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>599</v>
+        <v>538</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>309</v>
@@ -24592,7 +24293,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="s">
-        <v>598</v>
+        <v>537</v>
       </c>
       <c r="AT16">
         <v>21</v>
@@ -24601,13 +24302,13 @@
         <v>666</v>
       </c>
       <c r="BM16" t="s">
-        <v>755</v>
+        <v>694</v>
       </c>
       <c r="BN16" t="s">
-        <v>756</v>
+        <v>695</v>
       </c>
       <c r="BO16" t="s">
-        <v>757</v>
+        <v>696</v>
       </c>
       <c r="BQ16">
         <v>19</v>
@@ -24616,22 +24317,22 @@
         <v>2</v>
       </c>
       <c r="BS16" t="s">
+        <v>637</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>567</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>566</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>697</v>
+      </c>
+      <c r="CG16" t="s">
         <v>698</v>
       </c>
-      <c r="BT16" t="s">
-        <v>628</v>
-      </c>
-      <c r="CE16" t="s">
-        <v>627</v>
-      </c>
-      <c r="CF16" t="s">
-        <v>758</v>
-      </c>
-      <c r="CG16" t="s">
-        <v>759</v>
-      </c>
       <c r="CH16" t="s">
-        <v>760</v>
+        <v>699</v>
       </c>
       <c r="CI16">
         <v>57</v>
@@ -24649,13 +24350,13 @@
         <v>2</v>
       </c>
       <c r="CV16" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="CW16" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="CX16" t="s">
-        <v>750</v>
+        <v>689</v>
       </c>
       <c r="DX16">
         <v>152</v>
@@ -24664,10 +24365,10 @@
         <v>11.7</v>
       </c>
       <c r="DZ16" t="s">
-        <v>665</v>
+        <v>604</v>
       </c>
       <c r="EB16" t="s">
-        <v>679</v>
+        <v>618</v>
       </c>
       <c r="EC16">
         <v>139</v>
@@ -24682,7 +24383,7 @@
         <v>11527</v>
       </c>
       <c r="EJ16" t="s">
-        <v>761</v>
+        <v>700</v>
       </c>
       <c r="EK16">
         <v>147</v>
@@ -24741,7 +24442,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="s">
-        <v>600</v>
+        <v>539</v>
       </c>
       <c r="AT17">
         <v>16</v>
@@ -24753,13 +24454,13 @@
         <v>6</v>
       </c>
       <c r="BM17" t="s">
-        <v>762</v>
+        <v>701</v>
       </c>
       <c r="BN17" t="s">
-        <v>763</v>
+        <v>702</v>
       </c>
       <c r="BO17" t="s">
-        <v>764</v>
+        <v>703</v>
       </c>
       <c r="BQ17">
         <v>21</v>
@@ -24768,22 +24469,22 @@
         <v>2</v>
       </c>
       <c r="BS17" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="BT17" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="CE17" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="CF17" t="s">
-        <v>765</v>
+        <v>704</v>
       </c>
       <c r="CG17" t="s">
-        <v>766</v>
+        <v>705</v>
       </c>
       <c r="CH17" t="s">
-        <v>767</v>
+        <v>706</v>
       </c>
       <c r="CI17">
         <v>45</v>
@@ -24795,16 +24496,16 @@
         <v>42</v>
       </c>
       <c r="CM17" t="s">
-        <v>686</v>
+        <v>625</v>
       </c>
       <c r="CN17" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="CO17">
         <v>248</v>
       </c>
       <c r="CP17" t="s">
-        <v>665</v>
+        <v>604</v>
       </c>
       <c r="CS17">
         <v>21</v>
@@ -24816,13 +24517,13 @@
         <v>2</v>
       </c>
       <c r="CV17" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="CW17" t="s">
+        <v>628</v>
+      </c>
+      <c r="CX17" t="s">
         <v>689</v>
-      </c>
-      <c r="CX17" t="s">
-        <v>750</v>
       </c>
       <c r="DX17">
         <v>153</v>
@@ -24831,10 +24532,10 @@
         <v>10.88</v>
       </c>
       <c r="DZ17" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="EJ17" t="s">
-        <v>745</v>
+        <v>684</v>
       </c>
     </row>
     <row r="18" spans="1:144" x14ac:dyDescent="0.25">
@@ -24860,7 +24561,7 @@
         <v>100</v>
       </c>
       <c r="AS18" t="s">
-        <v>601</v>
+        <v>540</v>
       </c>
       <c r="AT18">
         <v>14</v>
@@ -24872,13 +24573,13 @@
         <v>6</v>
       </c>
       <c r="BM18" t="s">
-        <v>768</v>
+        <v>707</v>
       </c>
       <c r="BN18" t="s">
-        <v>769</v>
+        <v>708</v>
       </c>
       <c r="BO18" t="s">
-        <v>770</v>
+        <v>709</v>
       </c>
       <c r="BQ18">
         <v>22</v>
@@ -24887,22 +24588,22 @@
         <v>2</v>
       </c>
       <c r="BS18" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="BT18" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="CE18" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="CF18" t="s">
-        <v>771</v>
+        <v>710</v>
       </c>
       <c r="CG18" t="s">
-        <v>772</v>
+        <v>711</v>
       </c>
       <c r="CH18" t="s">
-        <v>773</v>
+        <v>712</v>
       </c>
       <c r="CI18">
         <v>20</v>
@@ -24914,16 +24615,16 @@
         <v>43</v>
       </c>
       <c r="CM18" t="s">
-        <v>686</v>
+        <v>625</v>
       </c>
       <c r="CN18" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="CO18">
         <v>267</v>
       </c>
       <c r="CP18" t="s">
-        <v>665</v>
+        <v>604</v>
       </c>
       <c r="CS18">
         <v>22</v>
@@ -24935,13 +24636,13 @@
         <v>1</v>
       </c>
       <c r="CV18" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="CW18" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="CX18" t="s">
-        <v>750</v>
+        <v>689</v>
       </c>
       <c r="DX18">
         <v>193</v>
@@ -24950,7 +24651,7 @@
         <v>11.7</v>
       </c>
       <c r="DZ18" t="s">
-        <v>665</v>
+        <v>604</v>
       </c>
       <c r="EJ18" t="s">
         <v>36</v>
@@ -24991,7 +24692,7 @@
         <v>100</v>
       </c>
       <c r="AS19" t="s">
-        <v>602</v>
+        <v>541</v>
       </c>
       <c r="AT19">
         <v>3</v>
@@ -25006,13 +24707,13 @@
         <v>6</v>
       </c>
       <c r="BM19" t="s">
-        <v>647</v>
+        <v>586</v>
       </c>
       <c r="BN19" t="s">
-        <v>774</v>
+        <v>713</v>
       </c>
       <c r="BO19" t="s">
-        <v>647</v>
+        <v>586</v>
       </c>
       <c r="BQ19">
         <v>24</v>
@@ -25021,22 +24722,22 @@
         <v>0</v>
       </c>
       <c r="BS19" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT19" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="CE19" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="CF19" t="s">
-        <v>775</v>
+        <v>714</v>
       </c>
       <c r="CG19" t="s">
-        <v>776</v>
+        <v>715</v>
       </c>
       <c r="CH19" t="s">
-        <v>777</v>
+        <v>716</v>
       </c>
       <c r="CI19">
         <v>81</v>
@@ -25051,13 +24752,13 @@
         <v>1</v>
       </c>
       <c r="CV19" t="s">
-        <v>666</v>
+        <v>605</v>
       </c>
       <c r="CW19" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="CX19" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="DX19">
         <v>197</v>
@@ -25066,7 +24767,7 @@
         <v>17.010000000000002</v>
       </c>
       <c r="DZ19" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="EJ19" t="s">
         <v>38</v>
@@ -25107,7 +24808,7 @@
         <v>100</v>
       </c>
       <c r="AS20" t="s">
-        <v>603</v>
+        <v>542</v>
       </c>
       <c r="AT20">
         <v>1</v>
@@ -25128,10 +24829,10 @@
         <v>0</v>
       </c>
       <c r="BS20" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT20" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="CE20" t="s">
         <v>302</v>
@@ -25158,13 +24859,13 @@
         <v>1</v>
       </c>
       <c r="CV20" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="CW20" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="CX20" t="s">
-        <v>750</v>
+        <v>689</v>
       </c>
     </row>
     <row r="21" spans="1:144" ht="17.25" x14ac:dyDescent="0.25">
@@ -25190,7 +24891,7 @@
         <v>100</v>
       </c>
       <c r="AS21" s="6" t="s">
-        <v>607</v>
+        <v>546</v>
       </c>
       <c r="AV21">
         <v>5.1660000000000004</v>
@@ -25208,13 +24909,13 @@
         <v>2</v>
       </c>
       <c r="BS21" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT21" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="CE21" t="s">
-        <v>806</v>
+        <v>765</v>
       </c>
       <c r="CS21">
         <v>187</v>
@@ -25226,18 +24927,18 @@
         <v>1</v>
       </c>
       <c r="CV21" t="s">
-        <v>699</v>
+        <v>638</v>
       </c>
       <c r="CW21" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="CX21" t="s">
-        <v>778</v>
+        <v>717</v>
       </c>
     </row>
     <row r="22" spans="1:144" ht="17.25" x14ac:dyDescent="0.25">
       <c r="AS22" t="s">
-        <v>598</v>
+        <v>537</v>
       </c>
       <c r="AT22">
         <v>21</v>
@@ -25252,13 +24953,13 @@
         <v>2</v>
       </c>
       <c r="BS22" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT22" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="CE22" t="s">
-        <v>807</v>
+        <v>766</v>
       </c>
       <c r="CS22">
         <v>197</v>
@@ -25270,18 +24971,18 @@
         <v>1</v>
       </c>
       <c r="CV22" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="CW22" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="CX22" t="s">
-        <v>750</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:144" ht="17.25" x14ac:dyDescent="0.25">
       <c r="AS23" t="s">
-        <v>600</v>
+        <v>539</v>
       </c>
       <c r="AT23">
         <v>19</v>
@@ -25299,13 +25000,13 @@
         <v>1</v>
       </c>
       <c r="BS23" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT23" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="CE23" t="s">
-        <v>808</v>
+        <v>767</v>
       </c>
       <c r="CR23">
         <v>3</v>
@@ -25320,24 +25021,24 @@
         <v>1</v>
       </c>
       <c r="CV23" t="s">
-        <v>666</v>
+        <v>605</v>
       </c>
       <c r="CW23" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="CX23" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:144" x14ac:dyDescent="0.25">
       <c r="AS24" t="s">
-        <v>601</v>
+        <v>540</v>
       </c>
       <c r="AT24">
         <v>14</v>
       </c>
       <c r="AU24" t="s">
-        <v>779</v>
+        <v>718</v>
       </c>
       <c r="BQ24">
         <v>35</v>
@@ -25346,10 +25047,10 @@
         <v>1</v>
       </c>
       <c r="BS24" t="s">
-        <v>698</v>
+        <v>637</v>
       </c>
       <c r="BT24" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="CS24">
         <v>246</v>
@@ -25361,18 +25062,18 @@
         <v>2</v>
       </c>
       <c r="CV24" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="CW24" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="CX24" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:144" x14ac:dyDescent="0.25">
       <c r="AS25" t="s">
-        <v>602</v>
+        <v>541</v>
       </c>
       <c r="AT25">
         <v>3</v>
@@ -25387,10 +25088,10 @@
         <v>1</v>
       </c>
       <c r="BS25" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT25" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="CS25">
         <v>269</v>
@@ -25402,18 +25103,18 @@
         <v>2</v>
       </c>
       <c r="CV25" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="CW25" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="CX25" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:144" x14ac:dyDescent="0.25">
       <c r="AS26" t="s">
-        <v>603</v>
+        <v>542</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -25428,10 +25129,10 @@
         <v>1</v>
       </c>
       <c r="BS26" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="BT26" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="CS26">
         <v>274</v>
@@ -25443,13 +25144,13 @@
         <v>2</v>
       </c>
       <c r="CV26" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="CW26" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="CX26" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:144" x14ac:dyDescent="0.25">
@@ -25460,10 +25161,10 @@
         <v>1</v>
       </c>
       <c r="BS27" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT27" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="CS27">
         <v>279</v>
@@ -25475,13 +25176,13 @@
         <v>1</v>
       </c>
       <c r="CV27" t="s">
-        <v>647</v>
+        <v>586</v>
       </c>
       <c r="CW27" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="CX27" t="s">
-        <v>648</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28" spans="1:144" x14ac:dyDescent="0.25">
@@ -25492,10 +25193,10 @@
         <v>1</v>
       </c>
       <c r="BS28" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT28" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="CS28">
         <v>438</v>
@@ -25507,13 +25208,13 @@
         <v>1</v>
       </c>
       <c r="CV28" t="s">
-        <v>647</v>
+        <v>586</v>
       </c>
       <c r="CW28" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="CX28" t="s">
-        <v>648</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="1:144" x14ac:dyDescent="0.25">
@@ -25524,10 +25225,10 @@
         <v>1</v>
       </c>
       <c r="BS29" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="BT29" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="CR29">
         <v>5</v>
@@ -25542,13 +25243,13 @@
         <v>1</v>
       </c>
       <c r="CV29" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="CW29" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="CX29" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:144" x14ac:dyDescent="0.25">
@@ -25559,10 +25260,10 @@
         <v>1</v>
       </c>
       <c r="BS30" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="BT30" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="CR30">
         <v>6</v>
@@ -25577,13 +25278,13 @@
         <v>1</v>
       </c>
       <c r="CV30" t="s">
-        <v>666</v>
+        <v>605</v>
       </c>
       <c r="CW30" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="CX30" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:144" x14ac:dyDescent="0.25">
@@ -25594,10 +25295,10 @@
         <v>1</v>
       </c>
       <c r="BS31" t="s">
-        <v>698</v>
+        <v>637</v>
       </c>
       <c r="BT31" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="CR31">
         <v>7</v>
@@ -25612,13 +25313,13 @@
         <v>1</v>
       </c>
       <c r="CV31" t="s">
-        <v>666</v>
+        <v>605</v>
       </c>
       <c r="CW31" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
       <c r="CX31" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32" spans="1:144" x14ac:dyDescent="0.25">
@@ -25629,10 +25330,10 @@
         <v>1</v>
       </c>
       <c r="BS32" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT32" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="CR32">
         <v>8</v>
@@ -25647,13 +25348,13 @@
         <v>1</v>
       </c>
       <c r="CV32" t="s">
-        <v>647</v>
+        <v>586</v>
       </c>
       <c r="CW32" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="CX32" t="s">
-        <v>648</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="69:102" x14ac:dyDescent="0.25">
@@ -25664,10 +25365,10 @@
         <v>1</v>
       </c>
       <c r="BS33" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="BT33" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="CR33">
         <v>10</v>
@@ -25682,13 +25383,13 @@
         <v>1</v>
       </c>
       <c r="CV33" t="s">
-        <v>647</v>
+        <v>586</v>
       </c>
       <c r="CW33" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="CX33" t="s">
-        <v>648</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" spans="69:102" x14ac:dyDescent="0.25">
@@ -25699,10 +25400,10 @@
         <v>1</v>
       </c>
       <c r="BS34" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="BT34" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="CR34">
         <v>12</v>
@@ -25717,13 +25418,13 @@
         <v>1</v>
       </c>
       <c r="CV34" t="s">
-        <v>666</v>
+        <v>605</v>
       </c>
       <c r="CW34" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="CX34" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
     </row>
     <row r="35" spans="69:102" x14ac:dyDescent="0.25">
@@ -25734,10 +25435,10 @@
         <v>1</v>
       </c>
       <c r="BS35" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT35" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="CR35">
         <v>13</v>
@@ -25752,13 +25453,13 @@
         <v>1</v>
       </c>
       <c r="CV35" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="CW35" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="CX35" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="69:102" x14ac:dyDescent="0.25">
@@ -25769,10 +25470,10 @@
         <v>1</v>
       </c>
       <c r="BS36" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT36" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="CR36">
         <v>0</v>
@@ -25787,13 +25488,13 @@
         <v>1</v>
       </c>
       <c r="CV36" t="s">
-        <v>666</v>
+        <v>605</v>
       </c>
       <c r="CW36" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="CX36" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="69:102" x14ac:dyDescent="0.25">
@@ -25804,10 +25505,10 @@
         <v>1</v>
       </c>
       <c r="BS37" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT37" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
     </row>
     <row r="38" spans="69:102" x14ac:dyDescent="0.25">
@@ -25818,10 +25519,10 @@
         <v>1</v>
       </c>
       <c r="BS38" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT38" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="69:102" x14ac:dyDescent="0.25">
@@ -25832,10 +25533,10 @@
         <v>1</v>
       </c>
       <c r="BS39" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="BT39" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
     </row>
     <row r="40" spans="69:102" x14ac:dyDescent="0.25">
@@ -25846,10 +25547,10 @@
         <v>5</v>
       </c>
       <c r="BS40" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="BT40" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="69:102" x14ac:dyDescent="0.25">
@@ -25860,10 +25561,10 @@
         <v>5</v>
       </c>
       <c r="BS41" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="BT41" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="69:102" x14ac:dyDescent="0.25">
@@ -25874,10 +25575,10 @@
         <v>5</v>
       </c>
       <c r="BS42" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT42" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="69:102" x14ac:dyDescent="0.25">
@@ -25888,10 +25589,10 @@
         <v>5</v>
       </c>
       <c r="BS43" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT43" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
     </row>
     <row r="44" spans="69:102" x14ac:dyDescent="0.25">
@@ -25902,10 +25603,10 @@
         <v>5</v>
       </c>
       <c r="BS44" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT44" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
     </row>
     <row r="45" spans="69:102" x14ac:dyDescent="0.25">
@@ -25916,10 +25617,10 @@
         <v>1</v>
       </c>
       <c r="BS45" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT45" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
     </row>
     <row r="46" spans="69:102" x14ac:dyDescent="0.25">
@@ -25930,10 +25631,10 @@
         <v>2</v>
       </c>
       <c r="BS46" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT46" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
     </row>
     <row r="47" spans="69:102" x14ac:dyDescent="0.25">
@@ -25944,10 +25645,10 @@
         <v>2</v>
       </c>
       <c r="BS47" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="BT47" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
     </row>
     <row r="48" spans="69:102" x14ac:dyDescent="0.25">
@@ -25958,10 +25659,10 @@
         <v>2</v>
       </c>
       <c r="BS48" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT48" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
     </row>
     <row r="49" spans="69:72" x14ac:dyDescent="0.25">
@@ -25972,10 +25673,10 @@
         <v>2</v>
       </c>
       <c r="BS49" t="s">
-        <v>698</v>
+        <v>637</v>
       </c>
       <c r="BT49" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
     </row>
     <row r="50" spans="69:72" x14ac:dyDescent="0.25">
@@ -25986,10 +25687,10 @@
         <v>2</v>
       </c>
       <c r="BS50" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="BT50" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
     </row>
     <row r="51" spans="69:72" x14ac:dyDescent="0.25">
@@ -26000,10 +25701,10 @@
         <v>5</v>
       </c>
       <c r="BS51" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT51" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="69:72" x14ac:dyDescent="0.25">
@@ -26014,10 +25715,10 @@
         <v>2</v>
       </c>
       <c r="BS52" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT52" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
     </row>
     <row r="53" spans="69:72" x14ac:dyDescent="0.25">
@@ -26028,10 +25729,10 @@
         <v>10</v>
       </c>
       <c r="BS53" t="s">
-        <v>698</v>
+        <v>637</v>
       </c>
       <c r="BT53" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="69:72" x14ac:dyDescent="0.25">
@@ -26042,10 +25743,10 @@
         <v>3</v>
       </c>
       <c r="BS54" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT54" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" spans="69:72" x14ac:dyDescent="0.25">
@@ -26056,10 +25757,10 @@
         <v>3</v>
       </c>
       <c r="BS55" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT55" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
     </row>
     <row r="56" spans="69:72" x14ac:dyDescent="0.25">
@@ -26070,10 +25771,10 @@
         <v>3</v>
       </c>
       <c r="BS56" t="s">
-        <v>698</v>
+        <v>637</v>
       </c>
       <c r="BT56" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
     </row>
     <row r="57" spans="69:72" x14ac:dyDescent="0.25">
@@ -26084,10 +25785,10 @@
         <v>3</v>
       </c>
       <c r="BS57" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT57" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="69:72" x14ac:dyDescent="0.25">
@@ -26098,10 +25799,10 @@
         <v>3</v>
       </c>
       <c r="BS58" t="s">
-        <v>698</v>
+        <v>637</v>
       </c>
       <c r="BT58" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="69:72" x14ac:dyDescent="0.25">
@@ -26112,10 +25813,10 @@
         <v>3</v>
       </c>
       <c r="BS59" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT59" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
     </row>
     <row r="60" spans="69:72" x14ac:dyDescent="0.25">
@@ -26126,10 +25827,10 @@
         <v>3</v>
       </c>
       <c r="BS60" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT60" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61" spans="69:72" x14ac:dyDescent="0.25">
@@ -26140,10 +25841,10 @@
         <v>3</v>
       </c>
       <c r="BS61" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="BT61" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="69:72" x14ac:dyDescent="0.25">
@@ -26154,10 +25855,10 @@
         <v>3</v>
       </c>
       <c r="BS62" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="BT62" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
     </row>
     <row r="63" spans="69:72" x14ac:dyDescent="0.25">
@@ -26168,10 +25869,10 @@
         <v>3</v>
       </c>
       <c r="BS63" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="BT63" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
     </row>
     <row r="64" spans="69:72" x14ac:dyDescent="0.25">
@@ -26182,10 +25883,10 @@
         <v>3</v>
       </c>
       <c r="BS64" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT64" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65" spans="69:72" x14ac:dyDescent="0.25">
@@ -26196,10 +25897,10 @@
         <v>3</v>
       </c>
       <c r="BS65" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="BT65" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
     </row>
     <row r="66" spans="69:72" x14ac:dyDescent="0.25">
@@ -26210,10 +25911,10 @@
         <v>3</v>
       </c>
       <c r="BS66" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT66" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
     </row>
     <row r="67" spans="69:72" x14ac:dyDescent="0.25">
@@ -26224,10 +25925,10 @@
         <v>0</v>
       </c>
       <c r="BS67" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT67" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
     </row>
     <row r="68" spans="69:72" x14ac:dyDescent="0.25">
@@ -26238,10 +25939,10 @@
         <v>0</v>
       </c>
       <c r="BS68" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT68" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
     </row>
     <row r="69" spans="69:72" x14ac:dyDescent="0.25">
@@ -26252,10 +25953,10 @@
         <v>6</v>
       </c>
       <c r="BS69" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT69" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70" spans="69:72" x14ac:dyDescent="0.25">
@@ -26266,10 +25967,10 @@
         <v>7</v>
       </c>
       <c r="BS70" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT70" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
     </row>
     <row r="71" spans="69:72" x14ac:dyDescent="0.25">
@@ -26280,10 +25981,10 @@
         <v>7</v>
       </c>
       <c r="BS71" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="BT71" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
     </row>
     <row r="72" spans="69:72" x14ac:dyDescent="0.25">
@@ -26294,10 +25995,10 @@
         <v>7</v>
       </c>
       <c r="BS72" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT72" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="69:72" x14ac:dyDescent="0.25">
@@ -26308,10 +26009,10 @@
         <v>8</v>
       </c>
       <c r="BS73" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT73" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
     </row>
     <row r="74" spans="69:72" x14ac:dyDescent="0.25">
@@ -26322,10 +26023,10 @@
         <v>8</v>
       </c>
       <c r="BS74" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT74" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
     </row>
     <row r="75" spans="69:72" x14ac:dyDescent="0.25">
@@ -26336,10 +26037,10 @@
         <v>8</v>
       </c>
       <c r="BS75" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT75" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76" spans="69:72" x14ac:dyDescent="0.25">
@@ -26350,10 +26051,10 @@
         <v>8</v>
       </c>
       <c r="BS76" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT76" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" spans="69:72" x14ac:dyDescent="0.25">
@@ -26364,10 +26065,10 @@
         <v>0</v>
       </c>
       <c r="BS77" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT77" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
     </row>
     <row r="78" spans="69:72" x14ac:dyDescent="0.25">
@@ -26378,10 +26079,10 @@
         <v>9</v>
       </c>
       <c r="BS78" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT78" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
     </row>
     <row r="79" spans="69:72" x14ac:dyDescent="0.25">
@@ -26392,10 +26093,10 @@
         <v>9</v>
       </c>
       <c r="BS79" t="s">
-        <v>698</v>
+        <v>637</v>
       </c>
       <c r="BT79" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
     </row>
     <row r="80" spans="69:72" x14ac:dyDescent="0.25">
@@ -26406,10 +26107,10 @@
         <v>12</v>
       </c>
       <c r="BS80" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="BT80" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
     </row>
     <row r="81" spans="69:72" x14ac:dyDescent="0.25">
@@ -26420,10 +26121,10 @@
         <v>12</v>
       </c>
       <c r="BS81" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT81" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
     </row>
     <row r="82" spans="69:72" x14ac:dyDescent="0.25">
@@ -26434,10 +26135,10 @@
         <v>12</v>
       </c>
       <c r="BS82" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="BT82" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
     </row>
     <row r="83" spans="69:72" x14ac:dyDescent="0.25">
@@ -26448,10 +26149,10 @@
         <v>12</v>
       </c>
       <c r="BS83" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT83" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
     </row>
     <row r="84" spans="69:72" x14ac:dyDescent="0.25">
@@ -26462,10 +26163,10 @@
         <v>12</v>
       </c>
       <c r="BS84" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT84" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
     </row>
     <row r="85" spans="69:72" x14ac:dyDescent="0.25">
@@ -26476,10 +26177,10 @@
         <v>10</v>
       </c>
       <c r="BS85" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT85" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
     </row>
     <row r="86" spans="69:72" x14ac:dyDescent="0.25">
@@ -26490,10 +26191,10 @@
         <v>10</v>
       </c>
       <c r="BS86" t="s">
-        <v>658</v>
+        <v>597</v>
       </c>
       <c r="BT86" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
     </row>
     <row r="87" spans="69:72" x14ac:dyDescent="0.25">
@@ -26504,10 +26205,10 @@
         <v>11</v>
       </c>
       <c r="BS87" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT87" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="69:72" x14ac:dyDescent="0.25">
@@ -26518,10 +26219,10 @@
         <v>13</v>
       </c>
       <c r="BS88" t="s">
-        <v>641</v>
+        <v>580</v>
       </c>
       <c r="BT88" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
     </row>
     <row r="89" spans="69:72" x14ac:dyDescent="0.25">
@@ -26532,14 +26233,37 @@
         <v>3</v>
       </c>
       <c r="BS89" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="BT89" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="AZ1:BF1"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="AS1:AX1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="BV1:BW1"/>
+    <mergeCell ref="BY1:CC1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CK1:CP1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="BM1:BO1"/>
     <mergeCell ref="EB1:EH1"/>
     <mergeCell ref="EJ1:EP1"/>
     <mergeCell ref="DX1:DZ1"/>
@@ -26556,29 +26280,6 @@
     <mergeCell ref="DL1:DP1"/>
     <mergeCell ref="DR1:DV1"/>
     <mergeCell ref="BQ1:BT1"/>
-    <mergeCell ref="BV1:BW1"/>
-    <mergeCell ref="BY1:CC1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CK1:CP1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="AZ1:BF1"/>
-    <mergeCell ref="BH1:BK1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="AS1:AX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
